--- a/ClassWork/Day01.xlsx
+++ b/ClassWork/Day01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anudip Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Movie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03EC3EEA-7F6A-48FF-8771-EDC1E9C42FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE42C98-4094-442E-9ECC-DCE41C6BE949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7316094A-323F-4E59-B16B-B3B92F15887E}"/>
   </bookViews>
@@ -22,28 +22,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -361,9 +352,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -379,6 +367,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,11 +753,11 @@
         <f>E4/$I$3</f>
         <v>0.66333333333333333</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -789,13 +780,13 @@
         <f t="shared" ref="F5:F8" si="1">E5/$I$3</f>
         <v>0.61</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -826,13 +817,13 @@
       <c r="M6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="13">
         <v>2</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="14">
         <v>5</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="14">
         <v>3</v>
       </c>
     </row>
@@ -1158,22 +1149,22 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>14</v>
       </c>
       <c r="J20" t="s">
@@ -1187,22 +1178,22 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>50000</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>2</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <v>50000</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <v>2</v>
       </c>
       <c r="J21" t="s">
@@ -1216,22 +1207,22 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>500</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>5</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="16">
         <v>500</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="16">
         <v>5</v>
       </c>
       <c r="J22" t="s">
@@ -1245,22 +1236,22 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>1500</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>3</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="16">
         <v>1500</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="16">
         <v>3</v>
       </c>
       <c r="J23" t="s">
@@ -1274,22 +1265,22 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>12000</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>1</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <v>12000</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="16">
         <v>1</v>
       </c>
       <c r="J24" t="s">
@@ -1303,22 +1294,22 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>8000</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <v>2</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <v>8000</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="16">
         <v>2</v>
       </c>
       <c r="J25" t="s">
@@ -1350,16 +1341,16 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="I2">
@@ -1367,13 +1358,13 @@
       </c>
     </row>
     <row r="3" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>37</v>
       </c>
       <c r="I3">
@@ -1381,13 +1372,13 @@
       </c>
     </row>
     <row r="4" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>38</v>
       </c>
       <c r="I4">
@@ -1395,13 +1386,13 @@
       </c>
     </row>
     <row r="5" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>39</v>
       </c>
       <c r="I5">
@@ -1418,13 +1409,13 @@
       </c>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>40</v>
       </c>
       <c r="I6">
@@ -1441,13 +1432,13 @@
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>36</v>
       </c>
       <c r="I7">
@@ -1464,13 +1455,13 @@
       </c>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>37</v>
       </c>
       <c r="I8">
@@ -1484,13 +1475,13 @@
       </c>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>38</v>
       </c>
       <c r="I9">
@@ -1583,10 +1574,10 @@
       </c>
     </row>
     <row r="21" spans="3:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>45</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>89</v>
       </c>
     </row>
@@ -1636,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4D3B04-B069-4293-8300-3CCA26BCC089}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1646,6 +1637,7 @@
     <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1805,12 +1797,12 @@
         <f>SUM(B10:D10)</f>
         <v>144</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <f>E10/300*100</f>
         <v>48</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>IF(F10&gt;=90,"A",IF(AND(F10&gt;=70,F10&lt;90),"B",IF(AND(F10&gt;=50,F10&lt;70),"C","Fail")))</f>
+        <f>_xlfn.IFS(F10&gt;=90,"A",AND(F10&gt;=70,F10&lt;90),"B",AND(F10&gt;=50,F10&lt;70),"C",F10&lt;50,"Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -1831,12 +1823,12 @@
         <f t="shared" ref="E11:E14" si="2">SUM(B11:D11)</f>
         <v>183</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <f t="shared" ref="F11:F14" si="3">E11/300*100</f>
         <v>61</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f t="shared" ref="G11:G14" si="4">IF(F11&gt;=90,"A",IF(AND(F11&gt;=70,F11&lt;90),"B",IF(AND(F11&gt;=50,F11&lt;70),"C","Fail")))</f>
+        <f t="shared" ref="G11:G14" si="4">_xlfn.IFS(F11&gt;=90,"A",AND(F11&gt;=70,F11&lt;90),"B",AND(F11&gt;=50,F11&lt;70),"C",F11&lt;50,"Fail")</f>
         <v>C</v>
       </c>
     </row>
@@ -1857,7 +1849,7 @@
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <f t="shared" si="3"/>
         <v>83.666666666666671</v>
       </c>
@@ -1883,7 +1875,7 @@
         <f t="shared" si="2"/>
         <v>273</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
@@ -1909,7 +1901,7 @@
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <f t="shared" si="3"/>
         <v>63.333333333333329</v>
       </c>
